--- a/data/trans_dic/P15A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04254839618964611</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04957057336738495</v>
+        <v>0.04957057336738496</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03012632635253519</v>
@@ -697,7 +697,7 @@
         <v>0.03626626611169842</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03875553044286665</v>
+        <v>0.03875553044286664</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01518055163341319</v>
+        <v>0.01570868837754972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01496816210933142</v>
+        <v>0.01543746499634573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01850390530192643</v>
+        <v>0.01842732875511012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01492660071946855</v>
+        <v>0.01518299185857231</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02557723803935858</v>
+        <v>0.02436437588177986</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02351212722379572</v>
+        <v>0.02388168148712067</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02997233367013247</v>
+        <v>0.02991439498365408</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03952180189568143</v>
+        <v>0.03882694616639436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02398489081541067</v>
+        <v>0.02320881800184988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02265113391113786</v>
+        <v>0.02267198085428325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0283277873494463</v>
+        <v>0.02808560832811697</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03188667032635679</v>
+        <v>0.03185958833470416</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03516846135234522</v>
+        <v>0.03452189316900474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0363529452185372</v>
+        <v>0.03790913407955978</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04197364743693642</v>
+        <v>0.04051633747094206</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03592082529378537</v>
+        <v>0.03591316924465802</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04582824223602802</v>
+        <v>0.04533264549891029</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04283316417302454</v>
+        <v>0.04379576122105618</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05721001623548512</v>
+        <v>0.05903893408909982</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06127259152274901</v>
+        <v>0.06197047995064131</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03777542195697463</v>
+        <v>0.03715268455952086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03687109508192699</v>
+        <v>0.03680123623517371</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0465215274649893</v>
+        <v>0.04676360495746002</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04748950973972803</v>
+        <v>0.04718624529110953</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03752969156144954</v>
+        <v>0.03674305315087612</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02348282974033611</v>
+        <v>0.02335241293786679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01930116752188825</v>
+        <v>0.0198548218896176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01829903637622048</v>
+        <v>0.0182920888283946</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01533517497385001</v>
+        <v>0.01556888132660937</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01603545141586119</v>
+        <v>0.01628216172589171</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01098472184181801</v>
+        <v>0.0106966699894015</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01533013083918785</v>
+        <v>0.01509449318019064</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02879388601454754</v>
+        <v>0.02857492056412075</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02197226094735102</v>
+        <v>0.02200483758679668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01701689439836401</v>
+        <v>0.01685034777414909</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01798075908616274</v>
+        <v>0.01829553422578951</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05843100572921938</v>
+        <v>0.05732496068052419</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03918538889658026</v>
+        <v>0.03986306929300686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03370066989922034</v>
+        <v>0.03360732576420461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.034172000288308</v>
+        <v>0.03439613150651924</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0311600871932235</v>
+        <v>0.03011738331948156</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03070284150597496</v>
+        <v>0.03065375578100759</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02302033060994618</v>
+        <v>0.02250838581685627</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.027975330678894</v>
+        <v>0.02756608937689056</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04212468000419818</v>
+        <v>0.04175285586832354</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03278494819887368</v>
+        <v>0.03339111691848863</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02652642899237764</v>
+        <v>0.02630191922957548</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02810178845893322</v>
+        <v>0.02868421048014096</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02165922250771019</v>
+        <v>0.02032560632318994</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0146785943967939</v>
+        <v>0.01406539150505991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01159907794664635</v>
+        <v>0.01187083061541488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008596510580038293</v>
+        <v>0.008935352412192539</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01422705892691765</v>
+        <v>0.01605488328127532</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01769935598876792</v>
+        <v>0.01751773291866814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0143205646811105</v>
+        <v>0.01426154111098501</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0114951878451626</v>
+        <v>0.01131643158359922</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02139559221409055</v>
+        <v>0.02182992415866833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02013637729377502</v>
+        <v>0.01974727839972721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01602962845885036</v>
+        <v>0.01605861791396744</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01184728993020603</v>
+        <v>0.01201447591773937</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05497505294722328</v>
+        <v>0.05380667856745875</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04507680433814013</v>
+        <v>0.04739231770120287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03955076187959378</v>
+        <v>0.03789220941253003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03321971143970057</v>
+        <v>0.03485609926407392</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04689046442903343</v>
+        <v>0.04749373021688159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05771137043310618</v>
+        <v>0.05721960385794094</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04226042144322572</v>
+        <v>0.04348170298597165</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02784210681965705</v>
+        <v>0.02775549426749777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04433323530498177</v>
+        <v>0.0449190715512755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04354100000189962</v>
+        <v>0.04417951355853589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03553211754663426</v>
+        <v>0.0366881312048006</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02670826417902369</v>
+        <v>0.02622724818160352</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.02477553408658436</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02649181220085669</v>
+        <v>0.02649181220085668</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03258579206000368</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02289390883927777</v>
+        <v>0.02326148588880997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02085735182106165</v>
+        <v>0.02096154084291854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01752577322343549</v>
+        <v>0.01809976447603997</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02233209375897732</v>
+        <v>0.02189349744409172</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0195603543321159</v>
+        <v>0.01936564414887837</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0222120579660404</v>
+        <v>0.02213509913930136</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02441024735798299</v>
+        <v>0.02439063161945909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02183313693454448</v>
+        <v>0.02150592532572551</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02149397071466609</v>
+        <v>0.02118174639480344</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03460500543128324</v>
+        <v>0.03457085634893104</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03164418570566199</v>
+        <v>0.03198334736986317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02905980287806705</v>
+        <v>0.02909381841339079</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03348506643443138</v>
+        <v>0.03280502072849822</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03056555187451612</v>
+        <v>0.03070477872495624</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03150291872198655</v>
+        <v>0.03171091315050138</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03232825967645313</v>
+        <v>0.0326168504267236</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02964377755280547</v>
+        <v>0.02949535656426723</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02892852351715269</v>
+        <v>0.02918079685103993</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15662</v>
+        <v>16207</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14589</v>
+        <v>15046</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13958</v>
+        <v>13901</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8635</v>
+        <v>8784</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33637</v>
+        <v>32042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31454</v>
+        <v>31949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29812</v>
+        <v>29755</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>32488</v>
+        <v>31917</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56289</v>
+        <v>54467</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52379</v>
+        <v>52428</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>49545</v>
+        <v>49122</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44659</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36284</v>
+        <v>35617</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35431</v>
+        <v>36948</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31663</v>
+        <v>30563</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20781</v>
+        <v>20777</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60269</v>
+        <v>59618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>57302</v>
+        <v>58590</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56905</v>
+        <v>58724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>50368</v>
+        <v>50942</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>88653</v>
+        <v>87191</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85262</v>
+        <v>85101</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>81366</v>
+        <v>81790</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66512</v>
+        <v>66087</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63553</v>
+        <v>62221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46119</v>
+        <v>45863</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40077</v>
+        <v>41226</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40817</v>
+        <v>40802</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24347</v>
+        <v>24718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28187</v>
+        <v>28621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21841</v>
+        <v>21268</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33288</v>
+        <v>32776</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>94475</v>
+        <v>93757</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>81775</v>
+        <v>81897</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>69168</v>
+        <v>68491</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79151</v>
+        <v>80536</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>98948</v>
+        <v>97075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>76958</v>
+        <v>78289</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69976</v>
+        <v>69782</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>76223</v>
+        <v>76723</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49472</v>
+        <v>47817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>53970</v>
+        <v>53883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>45771</v>
+        <v>44753</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>60745</v>
+        <v>59857</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138215</v>
+        <v>136995</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>122018</v>
+        <v>124274</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107822</v>
+        <v>106909</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>123703</v>
+        <v>126267</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11943</v>
+        <v>11208</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7063</v>
+        <v>6768</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6343</v>
+        <v>6492</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6117</v>
+        <v>6358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6778</v>
+        <v>7649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8117</v>
+        <v>8034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7864</v>
+        <v>7832</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8448</v>
+        <v>8316</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21991</v>
+        <v>22437</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>18924</v>
+        <v>18559</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17569</v>
+        <v>17601</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17137</v>
+        <v>17379</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30314</v>
+        <v>29669</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21690</v>
+        <v>22804</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21630</v>
+        <v>20723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23639</v>
+        <v>24803</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22339</v>
+        <v>22627</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26468</v>
+        <v>26243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23207</v>
+        <v>23878</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20461</v>
+        <v>20397</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>45567</v>
+        <v>46169</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40920</v>
+        <v>41520</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38944</v>
+        <v>40211</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>38633</v>
+        <v>37937</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78292</v>
+        <v>79549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70448</v>
+        <v>70800</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61703</v>
+        <v>63724</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>79373</v>
+        <v>77815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>69089</v>
+        <v>68401</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>82813</v>
+        <v>82526</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>170237</v>
+        <v>170101</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>150861</v>
+        <v>148600</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>155810</v>
+        <v>153546</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118342</v>
+        <v>118225</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106882</v>
+        <v>108028</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>102310</v>
+        <v>102430</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119014</v>
+        <v>116597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>107961</v>
+        <v>108452</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117453</v>
+        <v>118228</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>225458</v>
+        <v>227470</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>204830</v>
+        <v>203805</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>209703</v>
+        <v>211531</v>
       </c>
     </row>
     <row r="20">
